--- a/cta策略/result/螺纹/SMA_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/SMA_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.05064079661274867</v>
+        <v>0.2664217768375563</v>
       </c>
       <c r="D2">
-        <v>0.05865349658417456</v>
+        <v>0.9853670049522727</v>
       </c>
       <c r="E2">
-        <v>0.1175136772715232</v>
+        <v>0.9040915781040169</v>
       </c>
       <c r="F2">
-        <v>0.5625</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
   </sheetData>
